--- a/public/template_excel/lahan_pengairan.xlsx
+++ b/public/template_excel/lahan_pengairan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC1B3A65-D226-4B2C-ABB8-C74AB0455C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837DE252-5991-4EE0-B91C-8C051843D5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="-14790" windowWidth="24750" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lahan_pengairan" sheetId="3" r:id="rId1"/>
@@ -365,7 +365,9 @@
   </sheetPr>
   <dimension ref="A1:R731"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -377,10 +379,10 @@
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="35.77734375" customWidth="1"/>
     <col min="10" max="10" width="19.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +427,7 @@
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -445,7 +447,7 @@
     <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
